--- a/arquivos/excel_teste.xlsx
+++ b/arquivos/excel_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\pythonFlet\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C8BF1-56D0-4E01-9AEA-7E1CDAAF7157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DE240-78D8-49EC-8BD7-8D8C39DC7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Matérias</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +469,21 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -480,6 +498,21 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -494,6 +527,21 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -508,6 +556,21 @@
       <c r="D4">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -522,6 +585,21 @@
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -536,6 +614,21 @@
       <c r="D6">
         <v>6</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -550,6 +643,21 @@
       <c r="D7">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -564,6 +672,21 @@
       <c r="D8">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -578,6 +701,21 @@
       <c r="D9">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -592,12 +730,50 @@
       <c r="D10">
         <v>8</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -610,15 +786,33 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -631,15 +825,33 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -652,15 +864,33 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -673,15 +903,33 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>

--- a/arquivos/excel_teste.xlsx
+++ b/arquivos/excel_teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\pythonFlet\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DE240-78D8-49EC-8BD7-8D8C39DC7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A03A3E-131F-415F-A848-7E3A28DF1D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nome</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Matérias</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -457,7 +454,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,20 +466,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
+      <c r="E1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -498,20 +483,8 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -527,20 +500,8 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -556,20 +517,8 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -585,20 +534,8 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -614,20 +551,8 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -643,20 +568,8 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -672,20 +585,8 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -701,20 +602,8 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -730,49 +619,25 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -786,33 +651,10 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -825,33 +667,10 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -864,33 +683,10 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -903,33 +699,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
